--- a/src/predicciones/holt_winters/producto_28.xlsx
+++ b/src/predicciones/holt_winters/producto_28.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1012 +404,1012 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.07638632859105</v>
+        <v>1.099101766278573</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1.085563405959691</v>
+        <v>1.124068409267414</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44942</v>
       </c>
       <c r="B4">
-        <v>1.430515582578113</v>
+        <v>1.502664303541249</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44948</v>
       </c>
       <c r="B5">
-        <v>1.346263720384003</v>
+        <v>1.35605024180645</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44951</v>
       </c>
       <c r="B6">
-        <v>1.612946032509317</v>
+        <v>1.506468319222176</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44955</v>
       </c>
       <c r="B7">
-        <v>1.229283155080428</v>
+        <v>1.122608678273723</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44958</v>
       </c>
       <c r="B8">
-        <v>1.279793841124174</v>
+        <v>1.243030353576255</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44962</v>
       </c>
       <c r="B9">
-        <v>1.088058198059658</v>
+        <v>1.105197937893582</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44971</v>
       </c>
       <c r="B10">
-        <v>1.097235275428299</v>
+        <v>1.130164580882423</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44976</v>
       </c>
       <c r="B11">
-        <v>1.442187452046721</v>
+        <v>1.508760475156258</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44978</v>
       </c>
       <c r="B12">
-        <v>1.357935589852611</v>
+        <v>1.362146413421459</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44980</v>
       </c>
       <c r="B13">
-        <v>1.624617901977925</v>
+        <v>1.512564490837185</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44981</v>
       </c>
       <c r="B14">
-        <v>1.240955024549036</v>
+        <v>1.128704849888732</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44982</v>
       </c>
       <c r="B15">
-        <v>1.291465710592782</v>
+        <v>1.249126525191264</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44984</v>
       </c>
       <c r="B16">
-        <v>1.099730067528266</v>
+        <v>1.111294109508591</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44985</v>
       </c>
       <c r="B17">
-        <v>1.108907144896907</v>
+        <v>1.136260752497431</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44992</v>
       </c>
       <c r="B18">
-        <v>1.453859321515329</v>
+        <v>1.514856646771267</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44993</v>
       </c>
       <c r="B19">
-        <v>1.36960745932122</v>
+        <v>1.368242585036468</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44997</v>
       </c>
       <c r="B20">
-        <v>1.636289771446533</v>
+        <v>1.518660662452194</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44998</v>
       </c>
       <c r="B21">
-        <v>1.252626894017644</v>
+        <v>1.134801021503741</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45011</v>
       </c>
       <c r="B22">
-        <v>1.30313758006139</v>
+        <v>1.255222696806272</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45012</v>
       </c>
       <c r="B23">
-        <v>1.111401936996875</v>
+        <v>1.1173902811236</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45013</v>
       </c>
       <c r="B24">
-        <v>1.120579014365516</v>
+        <v>1.14235692411244</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45016</v>
       </c>
       <c r="B25">
-        <v>1.465531190983938</v>
+        <v>1.520952818386275</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45021</v>
       </c>
       <c r="B26">
-        <v>1.381279328789828</v>
+        <v>1.374338756651477</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45029</v>
       </c>
       <c r="B27">
-        <v>1.647961640915141</v>
+        <v>1.524756834067202</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45032</v>
       </c>
       <c r="B28">
-        <v>1.264298763486252</v>
+        <v>1.14089719311875</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45039</v>
       </c>
       <c r="B29">
-        <v>1.314809449529998</v>
+        <v>1.261318868421281</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45044</v>
       </c>
       <c r="B30">
-        <v>1.123073806465483</v>
+        <v>1.123486452738609</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45045</v>
       </c>
       <c r="B31">
-        <v>1.132250883834124</v>
+        <v>1.148453095727449</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45059</v>
       </c>
       <c r="B32">
-        <v>1.477203060452546</v>
+        <v>1.527048990001284</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45061</v>
       </c>
       <c r="B33">
-        <v>1.392951198258436</v>
+        <v>1.380434928266485</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45063</v>
       </c>
       <c r="B34">
-        <v>1.65963351038375</v>
+        <v>1.530853005682211</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45069</v>
       </c>
       <c r="B35">
-        <v>1.27597063295486</v>
+        <v>1.146993364733759</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45076</v>
       </c>
       <c r="B36">
-        <v>1.326481318998606</v>
+        <v>1.26741504003629</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45087</v>
       </c>
       <c r="B37">
-        <v>1.134745675934091</v>
+        <v>1.129582624353617</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45092</v>
       </c>
       <c r="B38">
-        <v>1.143922753302732</v>
+        <v>1.154549267342458</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45093</v>
       </c>
       <c r="B39">
-        <v>1.488874929921154</v>
+        <v>1.533145161616293</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45095</v>
       </c>
       <c r="B40">
-        <v>1.404623067727044</v>
+        <v>1.386531099881494</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45100</v>
       </c>
       <c r="B41">
-        <v>1.671305379852358</v>
+        <v>1.53694917729722</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45101</v>
       </c>
       <c r="B42">
-        <v>1.287642502423468</v>
+        <v>1.153089536348768</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45105</v>
       </c>
       <c r="B43">
-        <v>1.338153188467214</v>
+        <v>1.273511211651299</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45112</v>
       </c>
       <c r="B44">
-        <v>1.146417545402699</v>
+        <v>1.135678795968626</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45116</v>
       </c>
       <c r="B45">
-        <v>1.15559462277134</v>
+        <v>1.160645438957467</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45124</v>
       </c>
       <c r="B46">
-        <v>1.500546799389762</v>
+        <v>1.539241333231302</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45131</v>
       </c>
       <c r="B47">
-        <v>1.416294937195652</v>
+        <v>1.392627271496503</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45134</v>
       </c>
       <c r="B48">
-        <v>1.682977249320966</v>
+        <v>1.543045348912229</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45138</v>
       </c>
       <c r="B49">
-        <v>1.299314371892077</v>
+        <v>1.159185707963776</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45140</v>
       </c>
       <c r="B50">
-        <v>1.349825057935823</v>
+        <v>1.279607383266308</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45141</v>
       </c>
       <c r="B51">
-        <v>1.158089414871307</v>
+        <v>1.141774967583635</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45146</v>
       </c>
       <c r="B52">
-        <v>1.167266492239948</v>
+        <v>1.166741610572475</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45149</v>
       </c>
       <c r="B53">
-        <v>1.51221866885837</v>
+        <v>1.545337504846311</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45151</v>
       </c>
       <c r="B54">
-        <v>1.42796680666426</v>
+        <v>1.398723443111512</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45154</v>
       </c>
       <c r="B55">
-        <v>1.694649118789574</v>
+        <v>1.549141520527238</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45156</v>
       </c>
       <c r="B56">
-        <v>1.310986241360685</v>
+        <v>1.165281879578785</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45162</v>
       </c>
       <c r="B57">
-        <v>1.361496927404431</v>
+        <v>1.285703554881316</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45166</v>
       </c>
       <c r="B58">
-        <v>1.169761284339915</v>
+        <v>1.147871139198644</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45169</v>
       </c>
       <c r="B59">
-        <v>1.178938361708556</v>
+        <v>1.172837782187484</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45171</v>
       </c>
       <c r="B60">
-        <v>1.523890538326978</v>
+        <v>1.55143367646132</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45176</v>
       </c>
       <c r="B61">
-        <v>1.439638676132868</v>
+        <v>1.404819614726521</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45190</v>
       </c>
       <c r="B62">
-        <v>1.706320988258182</v>
+        <v>1.555237692142247</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45196</v>
       </c>
       <c r="B63">
-        <v>1.322658110829293</v>
+        <v>1.171378051193794</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45200</v>
       </c>
       <c r="B64">
-        <v>1.373168796873039</v>
+        <v>1.291799726496325</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45219</v>
       </c>
       <c r="B65">
-        <v>1.181433153808523</v>
+        <v>1.153967310813653</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45221</v>
       </c>
       <c r="B66">
-        <v>1.190610231177164</v>
+        <v>1.178933953802493</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45223</v>
       </c>
       <c r="B67">
-        <v>1.535562407795587</v>
+        <v>1.557529848076328</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45227</v>
       </c>
       <c r="B68">
-        <v>1.451310545601477</v>
+        <v>1.41091578634153</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45229</v>
       </c>
       <c r="B69">
-        <v>1.71799285772679</v>
+        <v>1.561333863757255</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45239</v>
       </c>
       <c r="B70">
-        <v>1.334329980297901</v>
+        <v>1.177474222808803</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45242</v>
       </c>
       <c r="B71">
-        <v>1.384840666341647</v>
+        <v>1.297895898111334</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45250</v>
       </c>
       <c r="B72">
-        <v>1.193105023277132</v>
+        <v>1.160063482428662</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45256</v>
       </c>
       <c r="B73">
-        <v>1.202282100645772</v>
+        <v>1.185030125417502</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45260</v>
       </c>
       <c r="B74">
-        <v>1.547234277264195</v>
+        <v>1.563626019691337</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45262</v>
       </c>
       <c r="B75">
-        <v>1.462982415070085</v>
+        <v>1.417011957956538</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45265</v>
       </c>
       <c r="B76">
-        <v>1.729664727195398</v>
+        <v>1.567430035372264</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45266</v>
       </c>
       <c r="B77">
-        <v>1.346001849766509</v>
+        <v>1.183570394423812</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45273</v>
       </c>
       <c r="B78">
-        <v>1.396512535810255</v>
+        <v>1.303992069726343</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45296</v>
       </c>
       <c r="B79">
-        <v>1.20477689274574</v>
+        <v>1.16615965404367</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45298</v>
       </c>
       <c r="B80">
-        <v>1.213953970114381</v>
+        <v>1.191126297032511</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45303</v>
       </c>
       <c r="B81">
-        <v>1.558906146732803</v>
+        <v>1.569722191306346</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45306</v>
       </c>
       <c r="B82">
-        <v>1.474654284538693</v>
+        <v>1.423108129571547</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45308</v>
       </c>
       <c r="B83">
-        <v>1.741336596664007</v>
+        <v>1.573526206987273</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45312</v>
       </c>
       <c r="B84">
-        <v>1.357673719235117</v>
+        <v>1.189666566038821</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45314</v>
       </c>
       <c r="B85">
-        <v>1.408184405278863</v>
+        <v>1.310088241341352</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45316</v>
       </c>
       <c r="B86">
-        <v>1.216448762214348</v>
+        <v>1.172255825658679</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45318</v>
       </c>
       <c r="B87">
-        <v>1.225625839582989</v>
+        <v>1.19722246864752</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45320</v>
       </c>
       <c r="B88">
-        <v>1.570578016201411</v>
+        <v>1.575818362921355</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45324</v>
       </c>
       <c r="B89">
-        <v>1.486326154007301</v>
+        <v>1.429204301186556</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45329</v>
       </c>
       <c r="B90">
-        <v>1.753008466132615</v>
+        <v>1.579622378602282</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45334</v>
       </c>
       <c r="B91">
-        <v>1.369345588703725</v>
+        <v>1.195762737653829</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45340</v>
       </c>
       <c r="B92">
-        <v>1.419856274747471</v>
+        <v>1.316184412956361</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45342</v>
       </c>
       <c r="B93">
-        <v>1.228120631682956</v>
+        <v>1.178351997273688</v>
       </c>
       <c r="C93">
         <v>1</v>
